--- a/SAI_function/SAIS算子统计.xlsx
+++ b/SAI_function/SAIS算子统计.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14010" windowHeight="12390" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07-11版算子" sheetId="2" r:id="rId2"/>
-    <sheet name="2022-07-12" sheetId="3" r:id="rId3"/>
+    <sheet name="2022-07更新" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2022-07-11版算子'!$E$1:$F$191</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="492">
   <si>
     <t>分类</t>
   </si>
@@ -1456,6 +1456,18 @@
   </si>
   <si>
     <t>节点实现用户导出经过处理的数据。</t>
+  </si>
+  <si>
+    <t>数据过滤</t>
+  </si>
+  <si>
+    <t>开发完成</t>
+  </si>
+  <si>
+    <t>自增序列</t>
+  </si>
+  <si>
+    <t>新增序列是指在原有数据基础上，新增一列自增序列，作为标识或其他特定作用。</t>
   </si>
   <si>
     <t>该节点支持将数据集进行转置操作。</t>
@@ -1526,8 +1538,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1572,7 +1584,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1580,8 +1605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,22 +1621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,10 +1636,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1648,10 +1659,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1681,14 +1693,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1696,7 +1700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,8 +1713,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,49 +1755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,13 +1779,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,43 +1821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,7 +1839,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,31 +1905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,17 +1992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2002,6 +2003,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,15 +2055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2077,6 +2078,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2085,10 +2097,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2097,16 +2109,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2118,19 +2130,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2142,92 +2154,92 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2251,6 +2263,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2668,2888 +2683,2888 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.1416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.1416666666667" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.1416666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.1416666666667" style="16" customWidth="1"/>
     <col min="3" max="3" width="29.7583333333333" customWidth="1"/>
-    <col min="4" max="4" width="96.9583333333333" style="16" customWidth="1"/>
+    <col min="4" max="4" width="96.9583333333333" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.175" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" ht="27" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="13.5" spans="1:5">
-      <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="1:5">
-      <c r="A28" s="19"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="27" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="13.5" spans="1:5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="13.5" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="23" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="13.5" spans="1:5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="23" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="13.5" spans="1:5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="23" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
-      <c r="A35" s="19"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:5">
-      <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
-      <c r="A39" s="19"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
-      <c r="A40" s="19"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="21" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
-      <c r="A41" s="19"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="54" spans="1:5">
-      <c r="A42" s="19"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="21" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:5">
-      <c r="A43" s="19"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="21" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="19"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="21" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:5">
-      <c r="A45" s="19"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="21" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:5">
-      <c r="A47" s="19"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="21" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:5">
-      <c r="A48" s="19"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="21" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:5">
-      <c r="A50" s="19"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="21" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" ht="40.5" spans="1:5">
-      <c r="A51" s="19"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="21" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="19"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="21" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="54" spans="1:5">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" ht="55" customHeight="1" spans="1:5">
-      <c r="A55" s="31"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="23" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" ht="52" customHeight="1" spans="1:5">
-      <c r="A56" s="31"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="21" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="21" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:5">
-      <c r="A59" s="31"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="21" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="31"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="31"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="26" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="31"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="26" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="24" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="24"/>
     </row>
     <row r="64" ht="27" spans="1:5">
-      <c r="A64" s="31"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="31"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="31"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="26" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:5">
-      <c r="A67" s="31"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="27" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" ht="46" customHeight="1" spans="1:5">
-      <c r="A68" s="31"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="32"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="31"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="24" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="24"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" ht="13.5" spans="1:5">
-      <c r="A70" s="31"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="24" t="s">
+      <c r="A70" s="32"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E70" s="24"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" ht="27" spans="1:5">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:5">
-      <c r="A72" s="31"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="33" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" ht="40.5" spans="1:5">
-      <c r="A73" s="31"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="32"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" ht="27" spans="1:5">
-      <c r="A74" s="31"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="33" t="s">
+      <c r="A74" s="32"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" ht="27" spans="1:5">
-      <c r="A75" s="31"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="33" t="s">
+      <c r="A75" s="32"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" ht="40.5" spans="1:5">
-      <c r="A76" s="31"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="33" t="s">
+      <c r="A76" s="32"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:5">
-      <c r="A77" s="31"/>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="32"/>
+      <c r="B77" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:5">
-      <c r="A78" s="31"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="33" t="s">
+      <c r="A78" s="32"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:5">
-      <c r="A79" s="31"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="33" t="s">
+      <c r="A79" s="32"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" ht="67.5" spans="1:5">
-      <c r="A80" s="31"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="32"/>
+      <c r="B80" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" ht="67.5" spans="1:5">
-      <c r="A81" s="31"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="33" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:5">
-      <c r="A82" s="31"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="33" t="s">
+      <c r="A82" s="32"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" ht="13.5" spans="1:5">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" ht="27" spans="1:5">
-      <c r="A84" s="19"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="21" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" ht="40.5" spans="1:5">
-      <c r="A85" s="19"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="21" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:5">
-      <c r="A86" s="19"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="21" t="s">
+      <c r="A86" s="20"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:5">
-      <c r="A87" s="19"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="21" t="s">
+      <c r="A87" s="20"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" ht="40.5" spans="1:5">
-      <c r="A88" s="19"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="21" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="54" spans="1:5">
-      <c r="A89" s="19"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="21" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:5">
-      <c r="A90" s="19"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="21" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91" ht="13.5" spans="1:5">
-      <c r="A91" s="19"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="23" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" ht="13.5" spans="1:5">
-      <c r="A92" s="19"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="23" t="s">
+      <c r="A92" s="20"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" ht="13.5" spans="1:5">
-      <c r="A93" s="19"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="23" t="s">
+      <c r="A93" s="20"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" ht="27" spans="1:5">
-      <c r="A94" s="19"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="21" t="s">
+      <c r="A94" s="20"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" ht="40.5" spans="1:5">
-      <c r="A95" s="19"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="21" t="s">
+      <c r="A95" s="20"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:5">
-      <c r="A96" s="19"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="21" t="s">
+      <c r="A96" s="20"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="24"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="19"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="24" t="s">
+      <c r="A98" s="20"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="17"/>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="19"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="24" t="s">
+      <c r="A99" s="20"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E99" s="24"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="19"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="26" t="s">
+      <c r="A100" s="20"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E100" s="16"/>
+      <c r="E100" s="17"/>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="19"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="24" t="s">
+      <c r="A101" s="20"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="24"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="19"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="24" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="E102" s="24"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" ht="27" spans="1:5">
-      <c r="A103" s="19"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="21" t="s">
+      <c r="A103" s="20"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E103" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" ht="40.5" spans="1:5">
-      <c r="A104" s="19"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="21" t="s">
+      <c r="A104" s="20"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="E104" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" ht="27" spans="1:5">
-      <c r="A105" s="19"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="21" t="s">
+      <c r="A105" s="20"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="E105" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="40.5" spans="1:5">
-      <c r="A106" s="19"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="21" t="s">
+      <c r="A106" s="20"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:5">
-      <c r="A107" s="19"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="21" t="s">
+      <c r="A107" s="20"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E107" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" ht="40.5" spans="1:5">
-      <c r="A108" s="19"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="21" t="s">
+      <c r="A108" s="20"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109" ht="54" spans="1:5">
-      <c r="A109" s="19"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="21" t="s">
+      <c r="A109" s="20"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E109" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" ht="94.5" spans="1:5">
-      <c r="A110" s="19"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="21" t="s">
+      <c r="A110" s="20"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" ht="40.5" spans="1:5">
-      <c r="A111" s="19"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="21" t="s">
+      <c r="A111" s="20"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E111" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" ht="54" spans="1:5">
-      <c r="A112" s="19"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="21" t="s">
+      <c r="A112" s="20"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E112" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="113" ht="54" spans="1:5">
-      <c r="A113" s="19"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="21" t="s">
+      <c r="A113" s="20"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E113" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" ht="40.5" spans="1:5">
-      <c r="A114" s="19"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="21" t="s">
+      <c r="A114" s="20"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E114" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" ht="40.5" spans="1:5">
-      <c r="A115" s="19"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="21" t="s">
+      <c r="A115" s="20"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E115" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" ht="40.5" spans="1:5">
-      <c r="A116" s="19"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="21" t="s">
+      <c r="A116" s="20"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E116" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:5">
-      <c r="A117" s="19"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="21" t="s">
+      <c r="A117" s="20"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" ht="40.5" spans="1:5">
-      <c r="A118" s="19"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="21" t="s">
+      <c r="A118" s="20"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="119" ht="40.5" spans="1:5">
-      <c r="A119" s="19"/>
-      <c r="B119" s="30" t="s">
+      <c r="A119" s="20"/>
+      <c r="B119" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" ht="40.5" spans="1:5">
-      <c r="A120" s="19"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="21" t="s">
+      <c r="A120" s="20"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" ht="40.5" spans="1:5">
-      <c r="A121" s="19"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="21" t="s">
+      <c r="A121" s="20"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" ht="40.5" spans="1:5">
-      <c r="A122" s="19"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="21" t="s">
+      <c r="A122" s="20"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E122" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" ht="40.5" spans="1:5">
-      <c r="A123" s="19"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="21" t="s">
+      <c r="A123" s="20"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" ht="40.5" spans="1:5">
-      <c r="A124" s="19"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="21" t="s">
+      <c r="A124" s="20"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D124" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E124" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:5">
-      <c r="A125" s="19"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="21" t="s">
+      <c r="A125" s="20"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" ht="27" spans="1:5">
-      <c r="A126" s="19"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="21" t="s">
+      <c r="A126" s="20"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D126" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E126" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="127" ht="40.5" spans="1:5">
-      <c r="A127" s="19"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="21" t="s">
+      <c r="A127" s="20"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D127" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E127" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="19"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="26" t="s">
+      <c r="A128" s="20"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E128" s="32" t="s">
+      <c r="E128" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="19"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="26" t="s">
+      <c r="A129" s="20"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="E129" s="32" t="s">
+      <c r="E129" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="19"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="26" t="s">
+      <c r="A130" s="20"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D130" s="32" t="s">
+      <c r="D130" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E130" s="32" t="s">
+      <c r="E130" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19" t="s">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E131" s="32" t="s">
+      <c r="E131" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="24" t="s">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="E132" s="24"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" ht="27" spans="1:5">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="21" t="s">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E133" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" ht="40.5" spans="1:5">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="21" t="s">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" ht="67.5" spans="1:5">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="21" t="s">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" ht="54" spans="1:5">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="21" t="s">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" ht="27" spans="1:5">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="21" t="s">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="D137" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" ht="27" spans="1:5">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="21" t="s">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D138" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="139" ht="40.5" spans="1:5">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="21" t="s">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="140" ht="54" spans="1:5">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="21" t="s">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" ht="54" spans="1:5">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="21" t="s">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="142" ht="40.5" spans="1:5">
-      <c r="A142" s="19"/>
-      <c r="B142" s="30" t="s">
+      <c r="A142" s="20"/>
+      <c r="B142" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" ht="40.5" spans="1:5">
-      <c r="A143" s="19"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="21" t="s">
+      <c r="A143" s="20"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" ht="40.5" spans="1:5">
-      <c r="A144" s="19"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="21" t="s">
+      <c r="A144" s="20"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D144" s="22" t="s">
+      <c r="D144" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19" t="s">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E145" s="24" t="s">
+      <c r="E145" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="146" ht="67.5" spans="1:5">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="21" t="s">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" ht="40.5" spans="1:5">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="21" t="s">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" ht="40.5" spans="1:5">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="21" t="s">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" ht="27" spans="1:5">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="21" t="s">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" ht="40.5" spans="1:5">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="21" t="s">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E150" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" ht="67.5" spans="1:5">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="21" t="s">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D151" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E151" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="152" ht="54" spans="1:5">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="21" t="s">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="D152" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E152" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="153" ht="67.5" spans="1:5">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="21" t="s">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="154" ht="54" spans="1:5">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="21" t="s">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="155" ht="54" spans="1:5">
-      <c r="A155" s="19"/>
-      <c r="B155" s="30" t="s">
+      <c r="A155" s="20"/>
+      <c r="B155" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D155" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="156" ht="13.5" spans="1:5">
-      <c r="A156" s="19"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="21" t="s">
+      <c r="A156" s="20"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="157" ht="27" spans="1:5">
-      <c r="A157" s="19"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="21" t="s">
+      <c r="A157" s="20"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="158" ht="40.5" spans="1:5">
-      <c r="A158" s="19"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="21" t="s">
+      <c r="A158" s="20"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="D158" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" ht="27" spans="1:5">
-      <c r="A159" s="19"/>
-      <c r="B159" s="30" t="s">
+      <c r="A159" s="20"/>
+      <c r="B159" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="D159" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" ht="40.5" spans="1:5">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="21" t="s">
+      <c r="B160" s="31"/>
+      <c r="C160" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D160" s="21" t="s">
+      <c r="D160" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" ht="40.5" spans="1:5">
-      <c r="A161" s="30"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="21" t="s">
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" ht="27" spans="1:5">
-      <c r="A162" s="30"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="21" t="s">
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="D162" s="21" t="s">
+      <c r="D162" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="163" ht="27" spans="1:5">
-      <c r="A163" s="30"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="21" t="s">
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="164" ht="40.5" spans="1:5">
-      <c r="A164" s="30"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="21" t="s">
+      <c r="A164" s="31"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D164" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E164" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="165" ht="40.5" spans="1:5">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="21" t="s">
+      <c r="B165" s="31"/>
+      <c r="C165" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" ht="40.5" spans="1:5">
-      <c r="A166" s="30"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="21" t="s">
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E166" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" ht="27" spans="1:5">
-      <c r="A167" s="30"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="21" t="s">
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D167" s="21" t="s">
+      <c r="D167" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E167" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" ht="27" spans="1:5">
-      <c r="A168" s="30"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="21" t="s">
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D168" s="21" t="s">
+      <c r="D168" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="E168" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" ht="27" spans="1:5">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="21" t="s">
+      <c r="B169" s="31"/>
+      <c r="C169" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" ht="27" spans="1:5">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="21" t="s">
+      <c r="A170" s="31"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E170" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" ht="27" spans="1:5">
-      <c r="A171" s="30"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="21" t="s">
+      <c r="A171" s="31"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D171" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E171" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" ht="27" spans="1:5">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="21" t="s">
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" ht="67.5" spans="1:5">
-      <c r="A173" s="30"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="21" t="s">
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="174" ht="40.5" spans="1:5">
-      <c r="A174" s="30"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="21" t="s">
+      <c r="A174" s="31"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" ht="27" spans="1:5">
-      <c r="A175" s="30" t="s">
+      <c r="A175" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="21" t="s">
+      <c r="B175" s="31"/>
+      <c r="C175" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="176" ht="27" spans="1:5">
-      <c r="A176" s="30"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="21" t="s">
+      <c r="A176" s="31"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D176" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="177" ht="13.5" spans="1:5">
-      <c r="A177" s="30"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="21" t="s">
+      <c r="A177" s="31"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D177" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E177" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="178" ht="27" spans="1:5">
-      <c r="A178" s="30"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="21" t="s">
+      <c r="A178" s="31"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D178" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="179" ht="13.5" spans="1:5">
-      <c r="A179" s="30"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="21" t="s">
+      <c r="A179" s="31"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D179" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="180" ht="13.5" spans="1:5">
-      <c r="A180" s="30"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="21" t="s">
+      <c r="A180" s="31"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="181" ht="27" spans="1:5">
-      <c r="A181" s="30"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="21" t="s">
+      <c r="A181" s="31"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D181" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E181" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="182" ht="40.5" spans="1:5">
-      <c r="A182" s="30"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="21" t="s">
+      <c r="A182" s="31"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D182" s="21" t="s">
+      <c r="D182" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="183" ht="40.5" spans="1:5">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="21" t="s">
+      <c r="A183" s="31"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D183" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="184" ht="27" spans="1:5">
-      <c r="A184" s="30"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="21" t="s">
+      <c r="A184" s="31"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D184" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="185" ht="27" spans="1:5">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="21" t="s">
+      <c r="A185" s="31"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E185" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="186" ht="27" spans="1:5">
-      <c r="A186" s="30"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="21" t="s">
+      <c r="A186" s="31"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D186" s="21" t="s">
+      <c r="D186" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="E186" s="21" t="s">
+      <c r="E186" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="187" ht="13.5" spans="1:5">
-      <c r="A187" s="30"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="21" t="s">
+      <c r="A187" s="31"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="E187" s="21" t="s">
+      <c r="E187" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="188" ht="40.5" spans="1:5">
-      <c r="A188" s="19" t="s">
+      <c r="A188" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="E188" s="21" t="s">
+      <c r="E188" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" ht="27" spans="1:5">
-      <c r="A189" s="19"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="21" t="s">
+      <c r="A189" s="20"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D189" s="21" t="s">
+      <c r="D189" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="E189" s="21" t="s">
+      <c r="E189" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" ht="27" spans="1:5">
-      <c r="A190" s="19"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="21" t="s">
+      <c r="A190" s="20"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D190" s="21" t="s">
+      <c r="D190" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="E190" s="21" t="s">
+      <c r="E190" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" ht="40.5" spans="1:5">
-      <c r="A191" s="19"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="21" t="s">
+      <c r="A191" s="20"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="D191" s="21" t="s">
+      <c r="D191" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E191" s="21" t="s">
+      <c r="E191" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" ht="67.5" spans="1:5">
-      <c r="A192" s="19"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="21" t="s">
+      <c r="A192" s="20"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D192" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E192" s="21" t="s">
+      <c r="E192" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" ht="81" spans="1:5">
-      <c r="A193" s="19"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="21" t="s">
+      <c r="A193" s="20"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D193" s="21" t="s">
+      <c r="D193" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="E193" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" ht="27" spans="1:5">
-      <c r="A194" s="19"/>
-      <c r="B194" s="30" t="s">
+      <c r="A194" s="20"/>
+      <c r="B194" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D194" s="21" t="s">
+      <c r="D194" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="E194" s="21" t="s">
+      <c r="E194" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" ht="27" spans="1:5">
-      <c r="A195" s="19"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="21" t="s">
+      <c r="A195" s="20"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D195" s="21" t="s">
+      <c r="D195" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="E195" s="21" t="s">
+      <c r="E195" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" ht="40.5" spans="1:5">
-      <c r="A196" s="19"/>
-      <c r="B196" s="30"/>
-      <c r="C196" s="21" t="s">
+      <c r="A196" s="20"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D196" s="21" t="s">
+      <c r="D196" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="E196" s="21" t="s">
+      <c r="E196" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" ht="27" spans="1:5">
-      <c r="A197" s="19"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="21" t="s">
+      <c r="A197" s="20"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D197" s="21" t="s">
+      <c r="D197" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="E197" s="21" t="s">
+      <c r="E197" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" ht="27" spans="1:5">
-      <c r="A198" s="19"/>
-      <c r="B198" s="30"/>
-      <c r="C198" s="21" t="s">
+      <c r="A198" s="20"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D198" s="21" t="s">
+      <c r="D198" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="E198" s="21" t="s">
+      <c r="E198" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="199" ht="40.5" spans="1:5">
-      <c r="A199" s="19"/>
-      <c r="B199" s="30"/>
-      <c r="C199" s="21" t="s">
+      <c r="A199" s="20"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="D199" s="21" t="s">
+      <c r="D199" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="E199" s="21" t="s">
+      <c r="E199" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" ht="13.5" spans="1:5">
-      <c r="A200" s="19"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="26" t="s">
+      <c r="A200" s="20"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" ht="13.5" spans="1:5">
-      <c r="A201" s="19"/>
-      <c r="B201" s="30"/>
-      <c r="C201" s="21" t="s">
+      <c r="A201" s="20"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="E201" s="21" t="s">
+      <c r="E201" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" ht="40.5" spans="1:5">
-      <c r="A202" s="19"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="21" t="s">
+      <c r="A202" s="20"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="E202" s="21" t="s">
+      <c r="E202" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="203" ht="27" spans="1:5">
-      <c r="A203" s="19" t="s">
+      <c r="A203" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="B203" s="19"/>
-      <c r="C203" s="21" t="s">
+      <c r="B203" s="20"/>
+      <c r="C203" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D203" s="21" t="s">
+      <c r="D203" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:5">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="21" t="s">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="D204" s="21" t="s">
+      <c r="D204" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="205" ht="27" spans="1:5">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="21" t="s">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="206" ht="27" spans="1:5">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="21" t="s">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="D206" s="21" t="s">
+      <c r="D206" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="207" ht="27" spans="1:5">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="21" t="s">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D207" s="21" t="s">
+      <c r="D207" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="208" ht="27" spans="1:5">
-      <c r="A208" s="19"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="21" t="s">
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D208" s="21" t="s">
+      <c r="D208" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="E208" s="21" t="s">
+      <c r="E208" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="209" ht="27" spans="1:5">
-      <c r="A209" s="30" t="s">
+      <c r="A209" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="D209" s="21" t="s">
+      <c r="D209" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="E209" s="21" t="s">
+      <c r="E209" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" ht="40.5" spans="1:5">
-      <c r="A210" s="30"/>
-      <c r="B210" s="30"/>
-      <c r="C210" s="21" t="s">
+      <c r="A210" s="31"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D210" s="21" t="s">
+      <c r="D210" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="E210" s="21" t="s">
+      <c r="E210" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="211" ht="54" spans="1:5">
-      <c r="A211" s="30"/>
-      <c r="B211" s="30" t="s">
+      <c r="A211" s="31"/>
+      <c r="B211" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D211" s="21" t="s">
+      <c r="D211" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="E211" s="21" t="s">
+      <c r="E211" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" ht="40.5" spans="1:5">
-      <c r="A212" s="30" t="s">
+      <c r="A212" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B212" s="30"/>
-      <c r="C212" s="21" t="s">
+      <c r="B212" s="31"/>
+      <c r="C212" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="D212" s="21" t="s">
+      <c r="D212" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="E212" s="21" t="s">
+      <c r="E212" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:5">
-      <c r="A213" s="30"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="21" t="s">
+      <c r="A213" s="31"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="D213" s="21" t="s">
+      <c r="D213" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E213" s="21" t="s">
+      <c r="E213" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:5">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="B214" s="30"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21" t="s">
+      <c r="B214" s="31"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="E214" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="1:5">
-      <c r="A215" s="35" t="s">
+      <c r="A215" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="B215" s="35"/>
-      <c r="C215" s="24" t="s">
+      <c r="B215" s="36"/>
+      <c r="C215" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="D215" s="36" t="s">
+      <c r="D215" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="E215" s="16"/>
+      <c r="E215" s="17"/>
     </row>
     <row r="216" customHeight="1" spans="1:5">
-      <c r="A216" s="35"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="24" t="s">
+      <c r="A216" s="36"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="D216" s="36"/>
-      <c r="E216" s="16"/>
+      <c r="D216" s="37"/>
+      <c r="E216" s="17"/>
     </row>
     <row r="217" customHeight="1" spans="1:5">
-      <c r="A217" s="35"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="24" t="s">
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D217" s="36"/>
-      <c r="E217" s="16"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="17"/>
     </row>
     <row r="218" customHeight="1" spans="1:5">
-      <c r="A218" s="35"/>
-      <c r="B218" s="35"/>
-      <c r="C218" s="24" t="s">
+      <c r="A218" s="36"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="D218" s="36"/>
-      <c r="E218" s="16"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="17"/>
     </row>
     <row r="219" customHeight="1" spans="1:5">
-      <c r="A219" s="35"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="24" t="s">
+      <c r="A219" s="36"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="D219" s="36"/>
-      <c r="E219" s="16"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="17"/>
     </row>
     <row r="220" customHeight="1" spans="1:5">
-      <c r="A220" s="35" t="s">
+      <c r="A220" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B220" s="35"/>
-      <c r="C220" s="24" t="s">
+      <c r="B220" s="36"/>
+      <c r="C220" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="D220" s="36" t="s">
+      <c r="D220" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="E220" s="16"/>
+      <c r="E220" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5625,19 +5640,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -5648,19 +5663,19 @@
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -5668,15 +5683,15 @@
       </c>
     </row>
     <row r="3" ht="40.5" hidden="1" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -5684,15 +5699,15 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
@@ -5700,15 +5715,15 @@
       </c>
     </row>
     <row r="5" ht="27" hidden="1" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
@@ -5716,15 +5731,15 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
@@ -5732,15 +5747,15 @@
       </c>
     </row>
     <row r="7" hidden="1" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
@@ -5748,15 +5763,15 @@
       </c>
     </row>
     <row r="8" ht="27" hidden="1" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
@@ -5764,15 +5779,15 @@
       </c>
     </row>
     <row r="9" hidden="1" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
@@ -5780,15 +5795,15 @@
       </c>
     </row>
     <row r="10" ht="40.5" hidden="1" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
@@ -5796,17 +5811,17 @@
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
@@ -5814,15 +5829,15 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
@@ -5830,15 +5845,15 @@
       </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
@@ -5846,15 +5861,15 @@
       </c>
     </row>
     <row r="14" ht="27" hidden="1" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
@@ -5862,15 +5877,15 @@
       </c>
     </row>
     <row r="15" hidden="1" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
@@ -5878,19 +5893,19 @@
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
@@ -5898,15 +5913,15 @@
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
@@ -5914,15 +5929,15 @@
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
@@ -5930,15 +5945,15 @@
       </c>
     </row>
     <row r="19" ht="27" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
@@ -5946,17 +5961,17 @@
       </c>
     </row>
     <row r="20" ht="54" spans="1:6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
@@ -5964,15 +5979,15 @@
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
@@ -5980,15 +5995,15 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
@@ -5996,15 +6011,15 @@
       </c>
     </row>
     <row r="23" ht="54" spans="1:6">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
@@ -6012,15 +6027,15 @@
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
@@ -6028,15 +6043,15 @@
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
@@ -6044,15 +6059,15 @@
       </c>
     </row>
     <row r="26" ht="40.5" spans="1:6">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
@@ -6060,15 +6075,15 @@
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
@@ -6076,17 +6091,17 @@
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
@@ -6094,15 +6109,15 @@
       </c>
     </row>
     <row r="29" ht="54" hidden="1" spans="1:6">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
@@ -6110,15 +6125,15 @@
       </c>
     </row>
     <row r="30" ht="27" hidden="1" spans="1:6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
@@ -6126,15 +6141,15 @@
       </c>
     </row>
     <row r="31" ht="27" hidden="1" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
@@ -6142,15 +6157,15 @@
       </c>
     </row>
     <row r="32" ht="27" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
@@ -6158,15 +6173,15 @@
       </c>
     </row>
     <row r="33" ht="54" hidden="1" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
@@ -6174,15 +6189,15 @@
       </c>
     </row>
     <row r="34" ht="67.5" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
@@ -6190,15 +6205,15 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:6">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
@@ -6206,15 +6221,15 @@
       </c>
     </row>
     <row r="36" ht="27" hidden="1" spans="1:6">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
@@ -6222,15 +6237,15 @@
       </c>
     </row>
     <row r="37" ht="54" hidden="1" spans="1:6">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
@@ -6238,15 +6253,15 @@
       </c>
     </row>
     <row r="38" ht="54" hidden="1" spans="1:6">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
@@ -6254,17 +6269,17 @@
       </c>
     </row>
     <row r="39" ht="40.5" spans="1:6">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
@@ -6272,15 +6287,15 @@
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:6">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
@@ -6288,15 +6303,15 @@
       </c>
     </row>
     <row r="41" ht="27" spans="1:6">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
@@ -6304,15 +6319,15 @@
       </c>
     </row>
     <row r="42" ht="54" spans="1:6">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
@@ -6320,15 +6335,15 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
@@ -6336,17 +6351,17 @@
       </c>
     </row>
     <row r="44" ht="54" spans="1:6">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
@@ -6354,15 +6369,15 @@
       </c>
     </row>
     <row r="45" ht="27" spans="1:6">
-      <c r="A45" s="13"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
@@ -6370,15 +6385,15 @@
       </c>
     </row>
     <row r="46" ht="54" hidden="1" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F46" t="s">
@@ -6386,15 +6401,15 @@
       </c>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="13"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
@@ -6402,15 +6417,15 @@
       </c>
     </row>
     <row r="48" ht="54" spans="1:6">
-      <c r="A48" s="13"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
@@ -6418,15 +6433,15 @@
       </c>
     </row>
     <row r="49" ht="27" hidden="1" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
@@ -6434,15 +6449,15 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
@@ -6450,15 +6465,15 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
@@ -6466,15 +6481,15 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="13"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
@@ -6482,15 +6497,15 @@
       </c>
     </row>
     <row r="53" ht="40.5" spans="1:6">
-      <c r="A53" s="13"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
@@ -6498,15 +6513,15 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
@@ -6514,15 +6529,15 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
@@ -6530,15 +6545,15 @@
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:6">
-      <c r="A56" s="13"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
@@ -6546,19 +6561,19 @@
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:6">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
@@ -6566,15 +6581,15 @@
       </c>
     </row>
     <row r="58" ht="27" spans="1:6">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
@@ -6582,15 +6597,15 @@
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:6">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
@@ -6598,15 +6613,15 @@
       </c>
     </row>
     <row r="60" ht="27" spans="1:6">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
@@ -6614,15 +6629,15 @@
       </c>
     </row>
     <row r="61" ht="40.5" spans="1:6">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="12" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
@@ -6630,15 +6645,15 @@
       </c>
     </row>
     <row r="62" ht="54" spans="1:6">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
@@ -6646,17 +6661,17 @@
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
@@ -6664,15 +6679,15 @@
       </c>
     </row>
     <row r="64" ht="54" spans="1:6">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
@@ -6680,15 +6695,15 @@
       </c>
     </row>
     <row r="65" ht="54" spans="1:6">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
@@ -6696,17 +6711,17 @@
       </c>
     </row>
     <row r="66" ht="81" spans="1:6">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
@@ -6714,15 +6729,15 @@
       </c>
     </row>
     <row r="67" ht="81" spans="1:6">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
@@ -6730,15 +6745,15 @@
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:6">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="12" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
@@ -6746,17 +6761,17 @@
       </c>
     </row>
     <row r="69" ht="27" spans="1:6">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
@@ -6764,15 +6779,15 @@
       </c>
     </row>
     <row r="70" ht="27" spans="1:6">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
@@ -6780,15 +6795,15 @@
       </c>
     </row>
     <row r="71" ht="54" spans="1:6">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
@@ -6796,15 +6811,15 @@
       </c>
     </row>
     <row r="72" ht="27" spans="1:6">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
@@ -6812,15 +6827,15 @@
       </c>
     </row>
     <row r="73" ht="54" spans="1:6">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
@@ -6828,15 +6843,15 @@
       </c>
     </row>
     <row r="74" ht="40.5" hidden="1" spans="1:6">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
@@ -6844,15 +6859,15 @@
       </c>
     </row>
     <row r="75" ht="67.5" hidden="1" spans="1:6">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
@@ -6860,15 +6875,15 @@
       </c>
     </row>
     <row r="76" ht="67.5" hidden="1" spans="1:6">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F76" t="s">
@@ -6876,15 +6891,15 @@
       </c>
     </row>
     <row r="77" ht="27" spans="1:6">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
@@ -6892,15 +6907,15 @@
       </c>
     </row>
     <row r="78" ht="54" hidden="1" spans="1:6">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
@@ -6908,15 +6923,15 @@
       </c>
     </row>
     <row r="79" ht="54" hidden="1" spans="1:6">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
@@ -6924,19 +6939,19 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
@@ -6944,15 +6959,15 @@
       </c>
     </row>
     <row r="81" ht="40.5" spans="1:6">
-      <c r="A81" s="10"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="11" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
@@ -6960,15 +6975,15 @@
       </c>
     </row>
     <row r="82" ht="54" spans="1:6">
-      <c r="A82" s="10"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="11" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
@@ -6976,15 +6991,15 @@
       </c>
     </row>
     <row r="83" ht="27" spans="1:6">
-      <c r="A83" s="10"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="11" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
@@ -6992,15 +7007,15 @@
       </c>
     </row>
     <row r="84" ht="54" spans="1:6">
-      <c r="A84" s="10"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
@@ -7008,15 +7023,15 @@
       </c>
     </row>
     <row r="85" ht="40.5" spans="1:6">
-      <c r="A85" s="10"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="11" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
@@ -7024,15 +7039,15 @@
       </c>
     </row>
     <row r="86" ht="40.5" spans="1:6">
-      <c r="A86" s="10"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="11" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
@@ -7040,15 +7055,15 @@
       </c>
     </row>
     <row r="87" ht="67.5" spans="1:6">
-      <c r="A87" s="10"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="11" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
@@ -7056,15 +7071,15 @@
       </c>
     </row>
     <row r="88" ht="108" spans="1:6">
-      <c r="A88" s="10"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="11" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
@@ -7072,15 +7087,15 @@
       </c>
     </row>
     <row r="89" ht="40.5" spans="1:6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="11" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
@@ -7088,15 +7103,15 @@
       </c>
     </row>
     <row r="90" ht="67.5" hidden="1" spans="1:6">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11" t="s">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
@@ -7104,15 +7119,15 @@
       </c>
     </row>
     <row r="91" ht="67.5" spans="1:6">
-      <c r="A91" s="10"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="11" t="s">
+      <c r="A91" s="11"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
@@ -7120,15 +7135,15 @@
       </c>
     </row>
     <row r="92" ht="40.5" spans="1:6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="11" t="s">
+      <c r="A92" s="11"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
@@ -7136,15 +7151,15 @@
       </c>
     </row>
     <row r="93" ht="54" spans="1:6">
-      <c r="A93" s="10"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="11" t="s">
+      <c r="A93" s="11"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
@@ -7152,15 +7167,15 @@
       </c>
     </row>
     <row r="94" ht="54" spans="1:6">
-      <c r="A94" s="10"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="11" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
@@ -7168,15 +7183,15 @@
       </c>
     </row>
     <row r="95" ht="27" hidden="1" spans="1:6">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11" t="s">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F95" t="s">
@@ -7184,15 +7199,15 @@
       </c>
     </row>
     <row r="96" ht="54" hidden="1" spans="1:6">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11" t="s">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F96" t="s">
@@ -7200,17 +7215,17 @@
       </c>
     </row>
     <row r="97" ht="54" spans="1:6">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
@@ -7218,15 +7233,15 @@
       </c>
     </row>
     <row r="98" ht="40.5" spans="1:6">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11" t="s">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
@@ -7234,15 +7249,15 @@
       </c>
     </row>
     <row r="99" ht="54" spans="1:6">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11" t="s">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
@@ -7250,15 +7265,15 @@
       </c>
     </row>
     <row r="100" ht="40.5" spans="1:6">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11" t="s">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
@@ -7266,15 +7281,15 @@
       </c>
     </row>
     <row r="101" ht="40.5" spans="1:6">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11" t="s">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F101" t="s">
@@ -7282,15 +7297,15 @@
       </c>
     </row>
     <row r="102" ht="40.5" spans="1:6">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11" t="s">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F102" t="s">
@@ -7298,15 +7313,15 @@
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="1:6">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11" t="s">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F103" t="s">
@@ -7314,15 +7329,15 @@
       </c>
     </row>
     <row r="104" ht="17" customHeight="1" spans="1:6">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11" t="s">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F104" t="s">
@@ -7330,15 +7345,15 @@
       </c>
     </row>
     <row r="105" ht="40.5" hidden="1" spans="1:6">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11" t="s">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
@@ -7346,15 +7361,15 @@
       </c>
     </row>
     <row r="106" ht="40.5" hidden="1" spans="1:6">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11" t="s">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F106" t="s">
@@ -7362,15 +7377,15 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11" t="s">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F107" t="s">
@@ -7378,15 +7393,15 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11" t="s">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F108" t="s">
@@ -7394,15 +7409,15 @@
       </c>
     </row>
     <row r="109" hidden="1" spans="1:6">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11" t="s">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F109" t="s">
@@ -7410,17 +7425,17 @@
       </c>
     </row>
     <row r="110" hidden="1" spans="1:6">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F110" t="s">
@@ -7428,15 +7443,15 @@
       </c>
     </row>
     <row r="111" ht="40.5" spans="1:6">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11" t="s">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F111" t="s">
@@ -7444,15 +7459,15 @@
       </c>
     </row>
     <row r="112" ht="54" hidden="1" spans="1:6">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11" t="s">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F112" t="s">
@@ -7460,15 +7475,15 @@
       </c>
     </row>
     <row r="113" ht="81" hidden="1" spans="1:6">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="11" t="s">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F113" t="s">
@@ -7476,15 +7491,15 @@
       </c>
     </row>
     <row r="114" ht="54" spans="1:6">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11" t="s">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F114" t="s">
@@ -7492,15 +7507,15 @@
       </c>
     </row>
     <row r="115" ht="27" hidden="1" spans="1:6">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="11" t="s">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F115" t="s">
@@ -7508,15 +7523,15 @@
       </c>
     </row>
     <row r="116" ht="40.5" hidden="1" spans="1:6">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11" t="s">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
@@ -7524,15 +7539,15 @@
       </c>
     </row>
     <row r="117" ht="40.5" hidden="1" spans="1:6">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="11" t="s">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F117" t="s">
@@ -7540,15 +7555,15 @@
       </c>
     </row>
     <row r="118" ht="67.5" hidden="1" spans="1:6">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11" t="s">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F118" t="s">
@@ -7556,15 +7571,15 @@
       </c>
     </row>
     <row r="119" ht="67.5" hidden="1" spans="1:6">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="11" t="s">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F119" t="s">
@@ -7572,17 +7587,17 @@
       </c>
     </row>
     <row r="120" ht="40.5" hidden="1" spans="1:6">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F120" t="s">
@@ -7590,15 +7605,15 @@
       </c>
     </row>
     <row r="121" ht="40.5" hidden="1" spans="1:6">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11" t="s">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F121" t="s">
@@ -7606,15 +7621,15 @@
       </c>
     </row>
     <row r="122" ht="40.5" hidden="1" spans="1:6">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11" t="s">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F122" t="s">
@@ -7622,17 +7637,17 @@
       </c>
     </row>
     <row r="123" ht="94.5" spans="1:6">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10" t="s">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F123" t="s">
@@ -7640,15 +7655,15 @@
       </c>
     </row>
     <row r="124" ht="40.5" hidden="1" spans="1:6">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11" t="s">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F124" t="s">
@@ -7656,15 +7671,15 @@
       </c>
     </row>
     <row r="125" ht="54" spans="1:6">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11" t="s">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F125" t="s">
@@ -7672,15 +7687,15 @@
       </c>
     </row>
     <row r="126" ht="40.5" spans="1:6">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11" t="s">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F126" t="s">
@@ -7688,15 +7703,15 @@
       </c>
     </row>
     <row r="127" ht="54" hidden="1" spans="1:6">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11" t="s">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
@@ -7704,15 +7719,15 @@
       </c>
     </row>
     <row r="128" ht="81" hidden="1" spans="1:6">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11" t="s">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F128" t="s">
@@ -7720,15 +7735,15 @@
       </c>
     </row>
     <row r="129" ht="54" hidden="1" spans="1:6">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="11" t="s">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F129" t="s">
@@ -7736,15 +7751,15 @@
       </c>
     </row>
     <row r="130" ht="81" hidden="1" spans="1:6">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11" t="s">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
@@ -7752,15 +7767,15 @@
       </c>
     </row>
     <row r="131" ht="67.5" hidden="1" spans="1:6">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="11" t="s">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F131" t="s">
@@ -7768,17 +7783,17 @@
       </c>
     </row>
     <row r="132" ht="67.5" hidden="1" spans="1:6">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10" t="s">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F132" t="s">
@@ -7786,15 +7801,15 @@
       </c>
     </row>
     <row r="133" ht="27" hidden="1" spans="1:6">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11" t="s">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F133" t="s">
@@ -7802,15 +7817,15 @@
       </c>
     </row>
     <row r="134" ht="40.5" hidden="1" spans="1:6">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11" t="s">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F134" t="s">
@@ -7818,15 +7833,15 @@
       </c>
     </row>
     <row r="135" ht="40.5" hidden="1" spans="1:6">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="11" t="s">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F135" t="s">
@@ -7834,17 +7849,17 @@
       </c>
     </row>
     <row r="136" ht="40.5" hidden="1" spans="1:6">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10" t="s">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F136" t="s">
@@ -7852,17 +7867,17 @@
       </c>
     </row>
     <row r="137" ht="40.5" hidden="1" spans="1:6">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B137" s="10"/>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="11"/>
+      <c r="C137" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F137" t="s">
@@ -7870,15 +7885,15 @@
       </c>
     </row>
     <row r="138" ht="54" hidden="1" spans="1:6">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11" t="s">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F138" t="s">
@@ -7886,15 +7901,15 @@
       </c>
     </row>
     <row r="139" ht="40.5" hidden="1" spans="1:6">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="11" t="s">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F139" t="s">
@@ -7902,15 +7917,15 @@
       </c>
     </row>
     <row r="140" ht="40.5" hidden="1" spans="1:6">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11" t="s">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F140" t="s">
@@ -7918,15 +7933,15 @@
       </c>
     </row>
     <row r="141" ht="54" hidden="1" spans="1:6">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11" t="s">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F141" t="s">
@@ -7934,17 +7949,17 @@
       </c>
     </row>
     <row r="142" ht="40.5" hidden="1" spans="1:6">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11" t="s">
+      <c r="B142" s="11"/>
+      <c r="C142" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F142" t="s">
@@ -7952,15 +7967,15 @@
       </c>
     </row>
     <row r="143" ht="40.5" hidden="1" spans="1:6">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="11" t="s">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F143" t="s">
@@ -7968,15 +7983,15 @@
       </c>
     </row>
     <row r="144" ht="27" hidden="1" spans="1:6">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11" t="s">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F144" t="s">
@@ -7984,15 +7999,15 @@
       </c>
     </row>
     <row r="145" ht="27" hidden="1" spans="1:6">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="11" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F145" t="s">
@@ -8000,17 +8015,17 @@
       </c>
     </row>
     <row r="146" ht="27" hidden="1" spans="1:6">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11" t="s">
+      <c r="B146" s="11"/>
+      <c r="C146" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F146" t="s">
@@ -8018,15 +8033,15 @@
       </c>
     </row>
     <row r="147" ht="27" hidden="1" spans="1:6">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11" t="s">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F147" t="s">
@@ -8034,15 +8049,15 @@
       </c>
     </row>
     <row r="148" ht="40.5" hidden="1" spans="1:6">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="11" t="s">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F148" t="s">
@@ -8050,15 +8065,15 @@
       </c>
     </row>
     <row r="149" ht="40.5" hidden="1" spans="1:6">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="11" t="s">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F149" t="s">
@@ -8066,15 +8081,15 @@
       </c>
     </row>
     <row r="150" ht="81" hidden="1" spans="1:6">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="11" t="s">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F150" t="s">
@@ -8082,15 +8097,15 @@
       </c>
     </row>
     <row r="151" ht="40.5" hidden="1" spans="1:6">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="11" t="s">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F151" t="s">
@@ -8098,17 +8113,17 @@
       </c>
     </row>
     <row r="152" ht="27" hidden="1" spans="1:6">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="11" t="s">
+      <c r="B152" s="11"/>
+      <c r="C152" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F152" t="s">
@@ -8116,15 +8131,15 @@
       </c>
     </row>
     <row r="153" ht="27" hidden="1" spans="1:6">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="11" t="s">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F153" t="s">
@@ -8132,15 +8147,15 @@
       </c>
     </row>
     <row r="154" ht="27" hidden="1" spans="1:6">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11" t="s">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F154" t="s">
@@ -8148,15 +8163,15 @@
       </c>
     </row>
     <row r="155" ht="27" hidden="1" spans="1:6">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="11" t="s">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F155" t="s">
@@ -8164,15 +8179,15 @@
       </c>
     </row>
     <row r="156" ht="27" hidden="1" spans="1:6">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11" t="s">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F156" t="s">
@@ -8180,15 +8195,15 @@
       </c>
     </row>
     <row r="157" ht="27" hidden="1" spans="1:6">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="11" t="s">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F157" t="s">
@@ -8196,15 +8211,15 @@
       </c>
     </row>
     <row r="158" ht="40.5" hidden="1" spans="1:6">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11" t="s">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F158" t="s">
@@ -8212,15 +8227,15 @@
       </c>
     </row>
     <row r="159" ht="40.5" hidden="1" spans="1:6">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="11" t="s">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F159" t="s">
@@ -8228,15 +8243,15 @@
       </c>
     </row>
     <row r="160" ht="40.5" hidden="1" spans="1:6">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11" t="s">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F160" t="s">
@@ -8244,15 +8259,15 @@
       </c>
     </row>
     <row r="161" ht="27" hidden="1" spans="1:6">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="11" t="s">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F161" t="s">
@@ -8260,15 +8275,15 @@
       </c>
     </row>
     <row r="162" ht="40.5" hidden="1" spans="1:6">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="11" t="s">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F162" t="s">
@@ -8276,15 +8291,15 @@
       </c>
     </row>
     <row r="163" ht="27" hidden="1" spans="1:6">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="11" t="s">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F163" t="s">
@@ -8292,15 +8307,15 @@
       </c>
     </row>
     <row r="164" ht="27" hidden="1" spans="1:6">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11" t="s">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F164" t="s">
@@ -8308,19 +8323,19 @@
       </c>
     </row>
     <row r="165" ht="40.5" spans="1:6">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F165" t="s">
@@ -8328,15 +8343,15 @@
       </c>
     </row>
     <row r="166" ht="40.5" spans="1:6">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="11" t="s">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F166" t="s">
@@ -8344,15 +8359,15 @@
       </c>
     </row>
     <row r="167" ht="27" spans="1:6">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="11" t="s">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F167" t="s">
@@ -8360,15 +8375,15 @@
       </c>
     </row>
     <row r="168" ht="40.5" spans="1:6">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11" t="s">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F168" t="s">
@@ -8376,15 +8391,15 @@
       </c>
     </row>
     <row r="169" ht="81" spans="1:6">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="11" t="s">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F169" t="s">
@@ -8392,15 +8407,15 @@
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:6">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="11" t="s">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F170" t="s">
@@ -8408,17 +8423,17 @@
       </c>
     </row>
     <row r="171" ht="27" spans="1:6">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10" t="s">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F171" t="s">
@@ -8426,15 +8441,15 @@
       </c>
     </row>
     <row r="172" ht="27" spans="1:6">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11" t="s">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F172" t="s">
@@ -8442,15 +8457,15 @@
       </c>
     </row>
     <row r="173" ht="54" spans="1:6">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="11" t="s">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F173" t="s">
@@ -8458,15 +8473,15 @@
       </c>
     </row>
     <row r="174" ht="27" spans="1:6">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="11" t="s">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F174" t="s">
@@ -8474,15 +8489,15 @@
       </c>
     </row>
     <row r="175" ht="27" spans="1:6">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="11" t="s">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F175" t="s">
@@ -8490,15 +8505,15 @@
       </c>
     </row>
     <row r="176" ht="54" spans="1:6">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11" t="s">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F176" t="s">
@@ -8506,15 +8521,15 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="11" t="s">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F177" t="s">
@@ -8522,15 +8537,15 @@
       </c>
     </row>
     <row r="178" ht="27" spans="1:6">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11" t="s">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="E178" s="11" t="s">
+      <c r="E178" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F178" t="s">
@@ -8538,15 +8553,15 @@
       </c>
     </row>
     <row r="179" ht="40.5" spans="1:6">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="11" t="s">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F179" t="s">
@@ -8554,17 +8569,17 @@
       </c>
     </row>
     <row r="180" ht="27" spans="1:6">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11" t="s">
+      <c r="B180" s="11"/>
+      <c r="C180" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F180" t="s">
@@ -8572,15 +8587,15 @@
       </c>
     </row>
     <row r="181" ht="22" customHeight="1" spans="1:6">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="11" t="s">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F181" t="s">
@@ -8588,15 +8603,15 @@
       </c>
     </row>
     <row r="182" ht="27" hidden="1" spans="1:6">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11" t="s">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F182" t="s">
@@ -8604,15 +8619,15 @@
       </c>
     </row>
     <row r="183" ht="27" hidden="1" spans="1:6">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="11" t="s">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E183" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F183" t="s">
@@ -8620,15 +8635,15 @@
       </c>
     </row>
     <row r="184" ht="27" hidden="1" spans="1:6">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11" t="s">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F184" t="s">
@@ -8636,15 +8651,15 @@
       </c>
     </row>
     <row r="185" ht="27" hidden="1" spans="1:6">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="11" t="s">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F185" t="s">
@@ -8652,19 +8667,19 @@
       </c>
     </row>
     <row r="186" ht="40.5" hidden="1" spans="1:6">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F186" t="s">
@@ -8672,15 +8687,15 @@
       </c>
     </row>
     <row r="187" ht="54" hidden="1" spans="1:6">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="11" t="s">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F187" t="s">
@@ -8688,17 +8703,17 @@
       </c>
     </row>
     <row r="188" ht="67.5" hidden="1" spans="1:6">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10" t="s">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F188" t="s">
@@ -8706,17 +8721,17 @@
       </c>
     </row>
     <row r="189" ht="40.5" hidden="1" spans="1:6">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B189" s="10"/>
-      <c r="C189" s="11" t="s">
+      <c r="B189" s="11"/>
+      <c r="C189" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F189" t="s">
@@ -8724,15 +8739,15 @@
       </c>
     </row>
     <row r="190" ht="27" hidden="1" spans="1:6">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="11" t="s">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F190" t="s">
@@ -8740,15 +8755,15 @@
       </c>
     </row>
     <row r="191" ht="27" customHeight="1" spans="1:6">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11" t="s">
+      <c r="B191" s="11"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F191" t="s">
@@ -8816,8 +8831,8 @@
   <sheetPr/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8894,10 +8909,10 @@
       <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -8906,7 +8921,9 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
       <c r="A5" s="4"/>
@@ -9063,14 +9080,14 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" ht="81" spans="1:7">
+    <row r="14" ht="27" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>476</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
@@ -9078,7 +9095,9 @@
       <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="15" ht="27" spans="1:7">
       <c r="A15" s="4"/>
@@ -9140,7 +9159,7 @@
         <v>90</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
@@ -9156,10 +9175,10 @@
         <v>100</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -9167,7 +9186,9 @@
       <c r="F19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="20" ht="67.5" spans="1:7">
       <c r="A20" s="4"/>
@@ -9184,16 +9205,18 @@
       <c r="F20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="21" ht="40.5" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -9201,7 +9224,9 @@
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="8" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="22" ht="94.5" spans="1:7">
       <c r="A22" s="4"/>
@@ -9416,7 +9441,7 @@
         <v>141</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
@@ -9646,7 +9671,7 @@
       <c r="C47" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -9655,7 +9680,9 @@
       <c r="F47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="48" ht="40.5" spans="1:7">
       <c r="A48" s="4"/>
@@ -9836,7 +9863,7 @@
         <v>221</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -10039,10 +10066,10 @@
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
@@ -10056,10 +10083,10 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -10073,10 +10100,10 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -10194,7 +10221,7 @@
         <v>270</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>275</v>
@@ -10555,7 +10582,9 @@
       <c r="F99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="8" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="100" ht="27" spans="1:7">
       <c r="A100" s="4"/>
@@ -10572,7 +10601,9 @@
       <c r="F100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
